--- a/biology/Médecine/Gaetano_Palloni/Gaetano_Palloni.xlsx
+++ b/biology/Médecine/Gaetano_Palloni/Gaetano_Palloni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaetano Palloni, né le 5 septembre 1766 à Montevarchi et mort le 17 février 1830 à Livourne, est un médecin et académicien italien.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 5 septembre 1766 à Montevarchi, il fait ses études au collège de la Sapience de Pise, où il a obtenu une bourse de la munificence souveraine. Après avoir terminé son cursus à l’université de Pise, il va s’établir à Florence et obtient rapidement la réputation d'être d’un bon praticien. 
-Partisan de l’éclectisme, sans toutefois rejeter les vérités et les observations pratiques, il est le premier à étudier et à faire connaître en Italie les doctrines de John Brown, bien qu’il les sache lui-même inexactes. Nommé en 1795 membre de l’Accademia dei Georgofili, puis de l’académie de Florence, il s’y fait remarquer par plusieurs travaux importants. Lorsque Jenner publie en 1798 son ouvrage où il promeut la vaccine comme traitement préventif contre la petite vérole, Palloni le diffuse en Toscane et réalise de nombreuses expériences pour en vérifier l’efficacité. Il publie ensuite un mémoire afin d’en répandre l’usage. Il est récompensé par la place de médecin des hôpitaux de Saint-Boniface et de Sainte-Marie Nouvelle, et par le titre de professeur honoraire de l’université de Pise. Une chaire de médecine est créée spécialement pour lui à Florence. En 1804, la fièvre jaune fait des ravages à Livourne, où elle a été importée par le commerce maritime ; le gouvernement y envoie Palloni, qui parvient à enrayer l'épidémie, de sorte qu'il est félicité par l’historien Carlo Botta[1]. Les moyens qu'il emploie sont si efficaces qu’en peu de temps l’épidémie disparaît. Il est alors nommé médecin du lazaret et du port de Livourne. À partir de cette époque, il est apprécié par tous les gouvernements successifs de Toscane. Il devient secrétaire général de l’académie italienne, membre du jury de médecine dans le département de la Méditerranée, chevalier de l’ordre royal des Deux-Siciles institué par Murat, et, après 1815, il est anobli par le grand-duc de Toscane, qui lui a déjà attribué l’ordre de Saint-Joseph. Palloni meurt à Livourne le 17 février 1830, après une courte maladie.
+Partisan de l’éclectisme, sans toutefois rejeter les vérités et les observations pratiques, il est le premier à étudier et à faire connaître en Italie les doctrines de John Brown, bien qu’il les sache lui-même inexactes. Nommé en 1795 membre de l’Accademia dei Georgofili, puis de l’académie de Florence, il s’y fait remarquer par plusieurs travaux importants. Lorsque Jenner publie en 1798 son ouvrage où il promeut la vaccine comme traitement préventif contre la petite vérole, Palloni le diffuse en Toscane et réalise de nombreuses expériences pour en vérifier l’efficacité. Il publie ensuite un mémoire afin d’en répandre l’usage. Il est récompensé par la place de médecin des hôpitaux de Saint-Boniface et de Sainte-Marie Nouvelle, et par le titre de professeur honoraire de l’université de Pise. Une chaire de médecine est créée spécialement pour lui à Florence. En 1804, la fièvre jaune fait des ravages à Livourne, où elle a été importée par le commerce maritime ; le gouvernement y envoie Palloni, qui parvient à enrayer l'épidémie, de sorte qu'il est félicité par l’historien Carlo Botta. Les moyens qu'il emploie sont si efficaces qu’en peu de temps l’épidémie disparaît. Il est alors nommé médecin du lazaret et du port de Livourne. À partir de cette époque, il est apprécié par tous les gouvernements successifs de Toscane. Il devient secrétaire général de l’académie italienne, membre du jury de médecine dans le département de la Méditerranée, chevalier de l’ordre royal des Deux-Siciles institué par Murat, et, après 1815, il est anobli par le grand-duc de Toscane, qui lui a déjà attribué l’ordre de Saint-Joseph. Palloni meurt à Livourne le 17 février 1830, après une courte maladie.
 Il est membre des académies de Copenhague, de Vilnius, de Lund, de Berlin et de presque toutes les sociétés savantes de l’Italie.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On a de lui, en italien :
 Sur les causes qui diminuent ou détruisent la respirabilité de l’air atmosphérique et sur les moyens de la rétablir par la végétation, mémoire inséré dans le tome 3 des Actes de l’accademia dei Georgofili, année 1795 ;
